--- a/biology/Médecine/Observatoire_national_de_la_sophrologie/Observatoire_national_de_la_sophrologie.xlsx
+++ b/biology/Médecine/Observatoire_national_de_la_sophrologie/Observatoire_national_de_la_sophrologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Observatoire national de la sophrologie est une association créée en 2008 par des sophrologues de courants différents qui a pour objet « la promotion, la validation scientifique et le développement éthique de la sophrologie en France et à l’étranger par tout moyen respectant l’esprit humaniste de la profession, notamment par des actions d’enquêtes, de recherches, de statistiques, de communication transversale, de publication scientifique, de publication d’articles, de veille systématique et d’information transparente ».
 L'association a pour vocation de faire reconnaître la sophrologie et le métier de sophrologue par les missions définies ci-dessus.
@@ -514,7 +526,9 @@
           <t>Fondation Caycedo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fondation de sophrologie caycédienne  n'a jamais donné son aval pour la création de cet observatoire.Toutefois, l'Observatoire National de la Sophrologie regroupait des sophrologues de formation différente y compris issus d'écoles strictement caycédiennes.
 </t>
